--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3333.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3333.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.01542037290517</v>
+        <v>2.465488910675049</v>
       </c>
       <c r="B1">
-        <v>2.177264324318898</v>
+        <v>4.309579849243164</v>
       </c>
       <c r="C1">
-        <v>8.528634657232359</v>
+        <v>3.226606845855713</v>
       </c>
       <c r="D1">
-        <v>2.544880910474335</v>
+        <v>0.9240348339080811</v>
       </c>
       <c r="E1">
-        <v>1.356674458996386</v>
+        <v>0.4779215753078461</v>
       </c>
     </row>
   </sheetData>
